--- a/data/others/annual_predictions_aon_yumc_amd.xlsx
+++ b/data/others/annual_predictions_aon_yumc_amd.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -787,7 +787,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -865,7 +865,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -904,7 +904,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -6118,7 +6118,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6243,7 +6243,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="E150" t="n">
